--- a/PRODUTOS/Limpeza/Limpeza - Limpeza da casa.xlsx
+++ b/PRODUTOS/Limpeza/Limpeza - Limpeza da casa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E163"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Limpador Multiuso Veja Gold Original 500ml</t>
+          <t>Limp Mr Musculo Cozinha Ref 400ml</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72ee9ce1-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3694613-8306-407f-9b5b-f9dfa58b6254.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7894650014110</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Álcool Archote 46° 1l</t>
+          <t>Oleo De Péroba Lavanda 100ml</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fcc6abaa-bd53-4be1-86fb-f5ccf1f8414c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/866daa0f-3688-4fce-aa03-4b0c28fc22d2.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7896050502204</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Limp Veja Multi Uso Lav. C/alcool 500ml</t>
+          <t>Veja C/ Cloro Tira Limo 500ml Squeeze</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92d43bf4-2a30-4df1-a961-8ea13877c053.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8f62aa4-28ce-40ef-9b23-bde6bb39db70.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891035209505</t>
         </is>
       </c>
     </row>
@@ -542,17 +562,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Limp Veja Multi Uso 750ml Original</t>
+          <t>Lustra Moveis Poliflor Superfice 200 Ml</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccd76fd8-3ec5-458e-9b2c-5c6bdd55723d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aaeb35f-25aa-40f0-9839-eab3b61f7a27.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891035502583</t>
         </is>
       </c>
     </row>
@@ -569,7 +594,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Limp. Veja Multi Uso 500ml Campestre</t>
+          <t>Limpador Casa &amp; Perfume 500ml Sensualida</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -579,7 +604,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50751cfc-f029-433c-bfd0-203abf0b39bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7a032b3-dcc7-47ca-ba22-dce59520b839.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7896040703710</t>
         </is>
       </c>
     </row>
@@ -596,7 +626,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Álcool Bactericida Top 46° Inpm 500ml</t>
+          <t>Limpador Casa &amp; Perfume 500ml Bela Flore</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -606,7 +636,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7c64809-cbde-432d-a887-582a0eb369a0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59ecc226-5fbc-4b88-8032-446da3e05a5a.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7896040704632</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Limpador Mult Uso Top Casa 500ml Campos De Lavanda</t>
+          <t>Limpador Casa &amp; Perfume 500ml Intuizone</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3ce71d41-e818-4d3a-a7cc-3cccb6bcbed4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4148a4e3-111e-481b-89a5-0c43a84654fc.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7896040704649</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Limpador Multi Uso Top Casa 500ml Efeito Micelar</t>
+          <t>Limpador Casa &amp; Perfume 500ml Amable</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f841deb3-89f6-481d-b470-06522465e0aa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e289c2e9-ee1a-41e2-bdca-dd7733d4e8d0.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7896040704656</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Álcool Líquido Coperalcool 46°inpm Tradicional 1lt</t>
+          <t>Cera Liquida Poliflor Pratic 750ml Vermelha</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 14,93</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cf613c8-1613-4ad6-a704-c247ad41989c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e367d618-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7891035320309</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Limpador Veja Multi Uso 500ml Floral</t>
+          <t>Destac Uso Direto Lavanda 750ml</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7ad48ac-4891-4b66-96c6-299bdba7869c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ac3e8b2-b9cb-4f3a-a2f7-47e5c8b7c7cb.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891035115509</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Limp Multi Uso Ype Classico 500ml</t>
+          <t>Cera Liquida Poliflor Pratic 750ml Incolor</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 22,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af159cf9-91ce-48f7-be73-21f59bbe13f4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d01b00aa-d8d6-46c3-93d0-368ee65d9fde.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891035320309</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Veja Limpeza Pesada 500ml 20% Desc Orig</t>
+          <t>Limp P/pisos Ceram Destac 750ml Porc</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7288328-299c-4e39-ae5e-f13424ba5b5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73f904b6-c407-4062-acd1-0febc88889a9.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891035115837</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Desinf Ype Cloro Ativo Limpa Limo 500ml</t>
+          <t>Lustra Moveis Poliflor 20%desc 500ml Lav</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8799cec-5347-4eb8-9a89-d6f69d9cc2b9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c305cca5-8d18-4abb-8fbe-c204fe57d5b2.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891035502200</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alcool Gel Asseptgel 420g</t>
+          <t>Limpador Concentrado Ajax 500ml Fresh Blue</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bffcfd10-b4db-4f26-b193-cc1bd8279d0c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9807407b-92b5-4181-a978-96fe14b2d183.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891024120903</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Limp Mr Musculo Cozinha Ref 400ml</t>
+          <t>Limpador Ajax 500ml Bouquet De Flores</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f3694613-8306-407f-9b5b-f9dfa58b6254.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aeb49486-44a4-4e63-b979-83ae4f6582dd.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891024127605</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Limp Veja Mult Power Fusion 500ml Laranj</t>
+          <t>Limpador Ajax 500ml Flores Do Campo</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 7,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bceeb7a1-4435-4932-9b63-1c69cdf3e549.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f39b2232-2d4c-406f-ac87-85c61b307cfa.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891024127704</t>
         </is>
       </c>
     </row>
@@ -893,17 +978,22 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Veja Banh Oxi Antibac Ativ 500ml 20% Des</t>
+          <t>Destac Limpa Pisos Laminado 750ml</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbc65af8-2d09-4548-98b8-e5bda06455a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6229b41d-6d7e-40f1-94c8-5a6201a516a2.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891035115806</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Limpador Mult Uso Top Casa 500ml Original</t>
+          <t>Limpa Carpetes Vanish Karpex 500ml</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 3,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49a01b2c-5d10-4365-afbc-2208dd675f9c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6faba6e-b1ff-46a7-8af4-fb706a6cb60f.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7891035200007</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Limpador Ajax 500ml Lavanda</t>
+          <t>Limpador Multiuso Veja Gold Original 500ml</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8cf171b-c121-4fe8-abfd-a309a104f7e4.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/72ee9ce1-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7891035216206</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Limp Multi-uso Ype C/alcool 500m</t>
+          <t>Limpador Veja Uso Direto 900ml Original</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f07cfbf6-9119-4a81-b0a0-37b330765c1e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1bab9cc-0fc9-401b-957a-a9061c704d07.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7891035211409</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Limp Multi Uso Ype Natureza 500ml</t>
+          <t>Limpador Veja Uso Direto 900ml Floral</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bae83ebf-60bf-4431-ad81-56db31f155ca.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40564e7e-2574-478b-8bd8-83a47096eb2e.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7891035211409</t>
         </is>
       </c>
     </row>
@@ -1028,17 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Kit Limpeza Uau Cloro Ativo +grátis Multiuso Lavanda 500ml</t>
+          <t>Limpador Veja Limpeza Pesada Orig 500ml</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12b14286-d183-4668-8f69-04cde0d70273.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc6c5d0f-3bd2-4d11-83e2-341b9ffd080e.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7891035215001</t>
         </is>
       </c>
     </row>
@@ -1055,17 +1170,22 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Limpador C&amp;p 500ml Agradable</t>
+          <t>Limpador Veja 2em1 Limpeza Pesada 500ml</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0a641070-1bb9-4f14-8f5b-2f13add7a0ce.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a550add-c738-4fab-b141-5cbd9722f314.jpg</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7891035250002</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1202,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Limpador Ajax 500ml Bouquet De Flores</t>
+          <t>Lustra Moveis Poliflor 200ml Jasmim</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/aeb49486-44a4-4e63-b979-83ae4f6582dd.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34afc8e0-f991-4f65-a6bd-5534325fcf13.jpg</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7891035500008</t>
         </is>
       </c>
     </row>
@@ -1109,17 +1234,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Limpador Ajax Concentrado 500ml Fresh Lemon</t>
+          <t>Lustra Moveis Poliflor 200ml Lavanda</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3881a718-2dd4-4717-bb33-f096420ebdd9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebbd0bbd-36c0-4ac4-8a22-1574bb876247.jpg</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7891035502200</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1266,22 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Limp Veja Multi Power Fusion 500ml Limao</t>
+          <t>Lustra Moveis Destac 200ml</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef9411aa-c73a-457d-937c-eb7b39d7082f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80bc151c-75ac-40bd-bcf6-7d6c985181c5.jpg</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>7891035516009</t>
         </is>
       </c>
     </row>
@@ -1163,17 +1298,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Limpador Veja Perfumes 1l Lavanda</t>
+          <t>Lustra Moveis Destac Lavanda 500ml</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2369c628-940e-460a-8825-283c6e8c0905.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/320e1fa1-51df-4dc7-b492-44cf3e07dce7.jpg</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7891035517006</t>
         </is>
       </c>
     </row>
@@ -1190,17 +1330,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Sensualida</t>
+          <t>Limp Multi Uso Ype Classico 500ml</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7a032b3-dcc7-47ca-ba22-dce59520b839.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af159cf9-91ce-48f7-be73-21f59bbe13f4.jpg</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7896098900802</t>
         </is>
       </c>
     </row>
@@ -1217,17 +1362,22 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Veja Limpeza Pesada 1lt Original</t>
+          <t>Limp Multi Uso Ype Natureza 500ml</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd4aaf63-6b53-4eb9-a212-3adb797d22d5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bae83ebf-60bf-4431-ad81-56db31f155ca.jpg</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7896098900802</t>
         </is>
       </c>
     </row>
@@ -1244,17 +1394,22 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Limp Multi-uso Tira Manchas Ype 500m</t>
+          <t>Cera Liq Nugget Preto 60ml</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa206337-bd43-4a74-b115-c764d280e027.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9eb5979-46f3-4973-b7e2-897243027e69.jpg</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7891035570001</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1426,22 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Limpador Concentrado Ajax 500ml Trad.fresh</t>
+          <t>Limpa Vidros Reax Cristal Gatilho 500ml</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/684f45ab-b87b-4e17-bec3-a8ac418a0985.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4338d91-e7a5-4074-a655-3df21908189c.jpg</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7896495001485</t>
         </is>
       </c>
     </row>
@@ -1298,17 +1458,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume Agradable 1l</t>
+          <t>Removedor Reax 1l</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/17b66565-fc30-4d2e-8a8f-534654020ac2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faeff86c-5c02-4c23-bbc3-088090823c7f.jpg</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7896097609065</t>
         </is>
       </c>
     </row>
@@ -1325,17 +1490,22 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lustra Moveis Agifacil 200ml Lavanda</t>
+          <t>Veja Limpeza Pesada Floral Camp. 500ml</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf7e0c87-1ab2-4c0c-a0c5-edd2cdddd512.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/921fdfaa-ff12-4d4d-9584-2e998b9070c6.jpg</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>7891035245008</t>
         </is>
       </c>
     </row>
@@ -1352,17 +1522,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Limp Vidro Bufalo Squeze 500ml</t>
+          <t>Limp Casa &amp; Perfume 1l Bela Flore</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f03e080f-543f-4a69-bd2c-184b1c469fec.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e5fccfb-8770-4312-99f1-877aae59b37d.jpg</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7896040703734</t>
         </is>
       </c>
     </row>
@@ -1392,6 +1567,11 @@
           <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6423d38-2f48-4e0e-a1ef-472ad2c01f01.jpg</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7896040703710</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1406,17 +1586,22 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Alcool Liq Top 46ºinpm 1l Mata 99% Trad</t>
+          <t>Removedor Reax Aroma Agradavel. 500ml</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/948d1a38-6a79-48de-8c4d-126b3ebbd493.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d4417e4-ff65-4724-8763-dbb99228e469.jpg</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7896097604046</t>
         </is>
       </c>
     </row>
@@ -1433,17 +1618,22 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Limpador Ajax 500ml Flores Do Campo</t>
+          <t>Limp Multi-uso Tira Manchas Ype 500m</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>R$ 7,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f39b2232-2d4c-406f-ac87-85c61b307cfa.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa206337-bd43-4a74-b115-c764d280e027.jpg</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7896098900826</t>
         </is>
       </c>
     </row>
@@ -1460,17 +1650,22 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Limp Destac Piso Laminado 20% 750ml</t>
+          <t>Polidor Liquido P/metais Polidoro 240g</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f92816ec-0887-4884-ab6c-7e1cb5260c7d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1387562-003b-4ee4-a479-735b73f178ae.jpg</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7896495000167</t>
         </is>
       </c>
     </row>
@@ -1487,17 +1682,22 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Amable</t>
+          <t>Limpador Bravo 750ml Laminado</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 32,99</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e289c2e9-ee1a-41e2-bdca-dd7733d4e8d0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eeb36ffc-fee5-4cb2-a41d-4c3574d5778a.jpg</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7894650000359</t>
         </is>
       </c>
     </row>
@@ -1514,17 +1714,22 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lustra Moveis Peroba Do Campo Lavanda200</t>
+          <t>Poliflor Max.brilho Incolor Sache 500ml</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f8252c4-71d3-4415-9691-cd1984c77a2b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ef355c0-7c1c-4a42-8615-a3a36915b2e5.jpg</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7891035322198</t>
         </is>
       </c>
     </row>
@@ -1541,17 +1746,22 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Álcool Líquido Coperalcool Bacfree 46°inpm Eucalipto 1lt</t>
+          <t>Limpa Pisos Bravo 750ml Porce/ceramica</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed9ad8f0-344e-4956-a52b-8611a3a5fb26.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5591cc1e-ab37-49f1-8565-310ad2bc61d8.jpg</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7894650000366</t>
         </is>
       </c>
     </row>
@@ -1568,17 +1778,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Veja C/ Cloro Tira Limo 500ml Squeeze</t>
+          <t>Removedor Bufalo Jasmim 500ml</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8f62aa4-28ce-40ef-9b23-bde6bb39db70.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3902e771-5d4c-4581-b3a8-7fcad33b9bd2.jpg</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7896097616513</t>
         </is>
       </c>
     </row>
@@ -1595,17 +1810,22 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Álcool Líquido Coperalcool Bacfree 46ºinpm Lavanda Oriental 1lt</t>
+          <t>Lustra Moveis Ype Lavanda 200ml</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>R$ 14,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4f518344-1af3-48d0-b4fb-84e8c87ba20a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d19eebcc-f508-440e-b1d4-16bd3843ba12.jpg</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7896098909980</t>
         </is>
       </c>
     </row>
@@ -1622,17 +1842,22 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Misterio Amore</t>
+          <t>Lustra Moveis Ype Jasmim 200ml</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e49f80e5-f311-4a04-b51f-1912cdbf78e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbd8c7b0-a2b4-409f-86bc-1b8782a553db.jpg</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7896098909997</t>
         </is>
       </c>
     </row>
@@ -1649,17 +1874,22 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Uau 500ml Lavanda E Conforto</t>
+          <t>Removedor Zulu Perfumado 900ml</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 28,99</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a26cde2-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4728ad47-54e1-4c0f-bd00-d34c5fb465bc.jpg</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7896090706280</t>
         </is>
       </c>
     </row>
@@ -1676,17 +1906,22 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cera Liquida Brilho Facil 750ml Incolor</t>
+          <t>Removedor Zulu Perfumado 450ml</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8d169fc-8355-452b-9b46-77c1a170351b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e5cc359-b2cc-43a3-88e5-3c25abf379c2.jpg</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7896090706341</t>
         </is>
       </c>
     </row>
@@ -1703,17 +1938,22 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Lava Roupas Uau 3l Active</t>
+          <t>Cera Liquida Super Tacolac Super 500ml</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/37d92d26-1216-4dea-9ade-8e1182458448.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/509424ce-90d7-4b2c-b772-a74713c2848b.jpg</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7896040700054</t>
         </is>
       </c>
     </row>
@@ -1730,17 +1970,22 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Removedor Bufalo 500ml</t>
+          <t>Cera Liquida Brilho Facil 750ml Incolor</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/168f39fc-1305-4ee8-a3e2-4008d3445f6e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c8d169fc-8355-452b-9b46-77c1a170351b.jpg</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7896040701105</t>
         </is>
       </c>
     </row>
@@ -1757,17 +2002,22 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Removedor Reax Aroma Agradavel. 500ml</t>
+          <t>Cera Liquida Brilho Facil 750ml Vermelha</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4d4417e4-ff65-4724-8763-dbb99228e469.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed31c0f7-bbd8-4b3b-b273-d552914c20f6.jpg</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>7896040701112</t>
         </is>
       </c>
     </row>
@@ -1784,17 +2034,22 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Limp Veja Multiuso 500ml Perf Energ</t>
+          <t>Cera Liquida Brilho Facil 750ml Amarela</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a837929f-0e3f-451d-ac25-d674297e9f42.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99ba26c0-2c63-4da5-a101-f870c83aa34b.jpg</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7896040701129</t>
         </is>
       </c>
     </row>
@@ -1811,17 +2066,22 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Lustra Moveis Agifacil 200ml Jasmim</t>
+          <t>Cera Liquida Brilho Facil 750ml Ardosia</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39f3f5aa-e66e-4d25-b3de-039d8928977d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7afe958b-e4d9-45be-95c0-2d3efaba4015.jpg</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7896040701136</t>
         </is>
       </c>
     </row>
@@ -1838,17 +2098,22 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Removedor Bufalo Lavanda 500ml</t>
+          <t>Removedor De Ceras Brilho Facil K&amp;m 1l</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30533722-153b-43cb-8416-1fbfd6461523.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9501f6fe-5aa4-4576-932f-b2f43824dab2.jpg</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7896040701815</t>
         </is>
       </c>
     </row>
@@ -1865,17 +2130,22 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Limp Veja Tira Limo 30% Desc 500ml</t>
+          <t>Lustra Moveis Peroba Do Campo Lavanda200</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc81f47c-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f8252c4-71d3-4415-9691-cd1984c77a2b.jpg</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7896050500286</t>
         </is>
       </c>
     </row>
@@ -1892,17 +2162,22 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Limpa Vidro Veja Vidrex Cristal Rf 500ml</t>
+          <t>Lustra Moveis Peroba Do Campo Lavanda500</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/859dd6f9-50c5-4d1e-94e9-bc3fd02f6907.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f95c5e52-a1a9-451d-80bc-fd9b48c5c4e7.jpg</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7896050500293</t>
         </is>
       </c>
     </row>
@@ -1919,17 +2194,22 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Uau 500ml Flores Vermelhas E Sedução</t>
+          <t>Lustra Moveis Peroba Rosa 200ml</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/55c5ef3a-7db8-446b-aaf9-37901d064ad1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e2adf6c-e689-4604-8867-0d3b5c4d8fa7.jpg</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7896050500309</t>
         </is>
       </c>
     </row>
@@ -1946,17 +2226,22 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 1lt Intuizione</t>
+          <t>Lustra Moveis Peroba Rosa 500ml</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50c3b65f-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/182bc18d-cd88-45da-a42b-66c78c99f520.jpg</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7896050500316</t>
         </is>
       </c>
     </row>
@@ -1973,17 +2258,22 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Veja Banheiro Oxi Antibac Ativo 500ml</t>
+          <t>Oleo De Peroba Lavanda 200ml</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>R$ 20,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fd0a577-3469-4cd7-9123-01d59ca0bbf5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99fa8e0b-266f-43b2-8dfb-08867bb07f04.jpg</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7896050502235</t>
         </is>
       </c>
     </row>
@@ -2000,17 +2290,22 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Sensazione</t>
+          <t>Lustra Moveis Peroba Jasmim 200ml</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 8,98</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/103e4c75-6930-4ea7-bcac-88fd0da1abb6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5271394e-e9d5-415e-8849-6a268af8a8a7.jpg</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7896050503430</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2322,22 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Limp Casa &amp; Perfume 1l Passione</t>
+          <t>Lustra Moveis Peroba Jasmim 500ml</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50df0f8e-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21856309-e3c4-4383-b974-228f4abaf9ea.jpg</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7896050503430</t>
         </is>
       </c>
     </row>
@@ -2054,17 +2354,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Limp Pesada Veja Cloro Ativo 1l 2 Em 1</t>
+          <t>Querosene Perfumado Bufalo Lavanda 500ml</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>R$ 27,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3303034-5718-446c-8135-5bf67e74c77f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7969a5d9-22dd-4890-9262-1811d0a1aa47.jpg</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7896097617138</t>
         </is>
       </c>
     </row>
@@ -2081,17 +2386,22 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Limp Veja Perf Nat 500ml Flores</t>
+          <t>Removedor Bufalo 1litro</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e5f8a3f-5cd6-4cd3-a2d5-58be03c4f91d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71a07713-9e49-42e4-9853-b3aa90023b12.jpg</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7896097604008</t>
         </is>
       </c>
     </row>
@@ -2108,17 +2418,22 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Limpador Multiuso 500ml Rosas E Sedução</t>
+          <t>Querosene Bufalo 1lt</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 26,99</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3012b8fd-2331-4835-8793-b24b5c3ac632.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2477647-159d-458f-a4e7-5e066882bb4c.jpg</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7896097604015</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2450,22 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Intuizone</t>
+          <t>Querosene Bufalo 500ml</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4148a4e3-111e-481b-89a5-0c43a84654fc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1064be4-423f-4db4-bf61-f8846bd0b8d6.jpg</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7896097604039</t>
         </is>
       </c>
     </row>
@@ -2162,17 +2482,22 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Uau 500ml Perfumes Requinte</t>
+          <t>Removedor Bufalo 500ml</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6f77e4d1-6ccf-4b6e-9424-64f1f1face55.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/168f39fc-1305-4ee8-a3e2-4008d3445f6e.jpg</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>7896097604046</t>
         </is>
       </c>
     </row>
@@ -2189,17 +2514,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Bela Flore</t>
+          <t>Removedor Bufalo Lavanda 500ml</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/59ecc226-5fbc-4b88-8032-446da3e05a5a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/30533722-153b-43cb-8416-1fbfd6461523.jpg</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7896097604046</t>
         </is>
       </c>
     </row>
@@ -2216,17 +2546,22 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Limpador Veja Limpeza Pesada Orig 500ml</t>
+          <t>Limpador Casa &amp; Perfume 500ml Speciale</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bc6c5d0f-3bd2-4d11-83e2-341b9ffd080e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/158573b8-8cc1-4876-b351-20fc5f252b81.jpg</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7896040704205</t>
         </is>
       </c>
     </row>
@@ -2243,17 +2578,22 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lustra Moveis Ype Lavanda 200ml</t>
+          <t>Limpador Casa &amp; Perfume Amable 1l</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d19eebcc-f508-440e-b1d4-16bd3843ba12.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6a7cb55-b7ac-4089-9259-535b2181586d.jpg</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7896040704656</t>
         </is>
       </c>
     </row>
@@ -2270,17 +2610,22 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Limp Casa &amp; Perfume 1l Bela Flore</t>
+          <t>Limpador Casa &amp; Perfume 500ml Sensazione</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7e5fccfb-8770-4312-99f1-877aae59b37d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/103e4c75-6930-4ea7-bcac-88fd0da1abb6.jpg</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7896040705295</t>
         </is>
       </c>
     </row>
@@ -2297,17 +2642,22 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Limpador Veja 2em1 Limpeza Pesada 500ml</t>
+          <t>Querosene Perf.jasmin Bufalo 500ml</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a550add-c738-4fab-b141-5cbd9722f314.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faaf4d39-c1ad-4637-b61b-c9cac9c44f44.jpg</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7896097617145</t>
         </is>
       </c>
     </row>
@@ -2324,17 +2674,22 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Alcool Em Gel Bacter 70º Inpm Top 500g</t>
+          <t>Limp Veja X14 Tira Limo 500ml C/gatilho</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>R$ 10,99</t>
+          <t>R$ 44,99</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1c0a4909-1fa4-4e61-9072-f78c95a3353a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81b9e5fb-ccb9-42f9-8b8b-d9b0cba24375.jpg</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7898024830177</t>
         </is>
       </c>
     </row>
@@ -2351,17 +2706,22 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume 500ml Speciale</t>
+          <t>Limpadores Veja X-14 Tira Limo Ref 500ml</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/158573b8-8cc1-4876-b351-20fc5f252b81.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02542e43-61ae-4f37-85c9-f7bf9080090f.jpg</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7898024830184</t>
         </is>
       </c>
     </row>
@@ -2378,17 +2738,22 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Limp Veja Perf Nat 500ml Lavanda</t>
+          <t>Limpa Vidros Reax Cristal Refil 500ml</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>R$ 8,49</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb4ceb99-1983-4aa7-95cc-f0d8e3afa5ac.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8ea32e3-c5bc-45fc-9d71-1fb22cf28894.jpg</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7896495001485</t>
         </is>
       </c>
     </row>
@@ -2405,17 +2770,22 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Limpadores Veja X-14 Tira Limo Ref 500ml</t>
+          <t>Limp Veja Perf Nat 500ml Lavanda</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 8,49</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/02542e43-61ae-4f37-85c9-f7bf9080090f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fb4ceb99-1983-4aa7-95cc-f0d8e3afa5ac.jpg</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7891035249433</t>
         </is>
       </c>
     </row>
@@ -2432,17 +2802,22 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Limpa Vidros Reax Cristal Refil 500ml</t>
+          <t>Limp Veja Multi Uso Lav. C/alcool 500ml</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f8ea32e3-c5bc-45fc-9d71-1fb22cf28894.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/92d43bf4-2a30-4df1-a961-8ea13877c053.jpg</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>7891035210334</t>
         </is>
       </c>
     </row>
@@ -2459,17 +2834,22 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Uau 500ml Flores &amp; Sonhos</t>
+          <t>Limp Veja Perf Nat 500ml Flores</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/877ba969-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0e5f8a3f-5cd6-4cd3-a2d5-58be03c4f91d.jpg</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7891035249228</t>
         </is>
       </c>
     </row>
@@ -2486,17 +2866,22 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Lustra Moveis Destac 200ml</t>
+          <t>Limp Multi-uso Ype C/alcool 500m</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/80bc151c-75ac-40bd-bcf6-7d6c985181c5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f07cfbf6-9119-4a81-b0a0-37b330765c1e.jpg</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7891035210334</t>
         </is>
       </c>
     </row>
@@ -2513,17 +2898,22 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Lustra Moveis Ype Jasmim 200ml</t>
+          <t>Desinf Ype Cloro Ativo Limpa Limo 500ml</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>R$ 8,99</t>
+          <t>R$ 12,99</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dbd8c7b0-a2b4-409f-86bc-1b8782a553db.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8799cec-5347-4eb8-9a89-d6f69d9cc2b9.jpg</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7896098909935</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2930,22 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Lustra Moveis Peroba Rosa 200ml</t>
+          <t>Álcool Líquido Coperalcool Bacfree 46°inpm Eucalipto 1lt</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 14,99</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/8e2adf6c-e689-4604-8867-0d3b5c4d8fa7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed9ad8f0-344e-4956-a52b-8611a3a5fb26.jpg</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7892141955713</t>
         </is>
       </c>
     </row>
@@ -2567,17 +2962,22 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Veja Limpeza Pesada Floral Camp. 500ml</t>
+          <t>Limp Pesada Veja Cloro Ativo 1l 2 Em 1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/921fdfaa-ff12-4d4d-9584-2e998b9070c6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d3303034-5718-446c-8135-5bf67e74c77f.jpg</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7891035250019</t>
         </is>
       </c>
     </row>
@@ -2594,17 +2994,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Destac Limpa Pisos Laminado 750ml</t>
+          <t>Limpa Estofados E Carpetes Sanol 500ml</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 13,99</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6229b41d-6d7e-40f1-94c8-5a6201a516a2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bff784c4-4a9f-4bff-93d4-3b0767f36149.jpg</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7896183304874</t>
         </is>
       </c>
     </row>
@@ -2621,17 +3026,22 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume Passione 500ml</t>
+          <t>Limp Veja Tira Limo 30% Desc 500ml</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>R$ 6,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89363e1d-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dc81f47c-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7891035800078</t>
         </is>
       </c>
     </row>
@@ -2648,17 +3058,22 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Cera Liquida Super Tacolac Super 500ml</t>
+          <t>Limpador Casa &amp; Perfume Sensazione 1l</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/509424ce-90d7-4b2c-b772-a74713c2848b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0401ac7d-fad7-45b6-9c6d-7bbcc4229332.jpg</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7896040705295</t>
         </is>
       </c>
     </row>
@@ -2675,17 +3090,22 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Limpador Concentrado Ajax 500ml Fresh Blue</t>
+          <t>Limp Veja Multi Uso 750ml Original</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9807407b-92b5-4181-a978-96fe14b2d183.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ccd76fd8-3ec5-458e-9b2c-5c6bdd55723d.jpg</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7891035216206</t>
         </is>
       </c>
     </row>
@@ -2702,17 +3122,22 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Lustra Moveis Peroba Do Campo Lavanda500</t>
+          <t>Limpador Casa &amp; Perfume 1lt Intuizione</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f95c5e52-a1a9-451d-80bc-fd9b48c5c4e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50c3b65f-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7896040704649</t>
         </is>
       </c>
     </row>
@@ -2729,17 +3154,22 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Lustra Moveis Peroba Jasmim 200ml</t>
+          <t>Querosene Apache 900ml</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>R$ 8,98</t>
+          <t>R$ 21,99</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5271394e-e9d5-415e-8849-6a268af8a8a7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b72487c0-7148-46c7-82f7-be3e4b254bdf.jpg</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7896090704033</t>
         </is>
       </c>
     </row>
@@ -2756,17 +3186,22 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Removedor Bufalo Jasmim 500ml</t>
+          <t>Veja Limpeza Pesada 1lt Original</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 27,99</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3902e771-5d4c-4581-b3a8-7fcad33b9bd2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dd4aaf63-6b53-4eb9-a212-3adb797d22d5.jpg</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7891035215193</t>
         </is>
       </c>
     </row>
@@ -2783,17 +3218,22 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Limpa Limo Reax Refil 500ml</t>
+          <t>Limp Casa &amp; Perfume 1l Passione</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9c1850ef-29b2-4cd2-bfda-2ea91f477520.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/50df0f8e-c0bb-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7896040706162</t>
         </is>
       </c>
     </row>
@@ -2810,17 +3250,22 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume Sensazione 1l</t>
+          <t>Limpador Cif Gatilho 500ml Banheiro S/cloro</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 24,99</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0401ac7d-fad7-45b6-9c6d-7bbcc4229332.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68eca0eb-136a-400f-adf3-294dcc20a9d4.jpg</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7891150038585</t>
         </is>
       </c>
     </row>
@@ -2837,17 +3282,22 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Lustra Moveis Poliflor 200ml Lavanda</t>
+          <t>Limpador Casa &amp; Perfume Passione 500ml</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ebbd0bbd-36c0-4ac4-8a22-1574bb876247.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/89363e1d-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7896040706155</t>
         </is>
       </c>
     </row>
@@ -2864,17 +3314,22 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Pano Umedecido Top Alcool C/35 Un Tradicional</t>
+          <t>Limpador Veja Perfumes 1l Lavanda</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4c07901-da26-4724-a06f-74809eab4733.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2369c628-940e-460a-8825-283c6e8c0905.jpg</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7891035249013</t>
         </is>
       </c>
     </row>
@@ -2891,17 +3346,22 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Uau 500ml Brisa E Frescor</t>
+          <t>Limp Destac Piso Laminado 20% 750ml</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>R$ 4,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ade5c2f-48b9-4b64-8daa-b00685e2fa57.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f92816ec-0887-4884-ab6c-7e1cb5260c7d.jpg</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7891035116513</t>
         </is>
       </c>
     </row>
@@ -2918,17 +3378,22 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Oleo De Péroba Lavanda 100ml</t>
+          <t>Limp Veja Multi Power Fusion 500ml Limao</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/866daa0f-3688-4fce-aa03-4b0c28fc22d2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef9411aa-c73a-457d-937c-eb7b39d7082f.jpg</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7891035990571</t>
         </is>
       </c>
     </row>
@@ -2945,17 +3410,22 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Oleo De Peroba Lavanda 200ml</t>
+          <t>Limp Veja Multiuso 500ml Perf Energ</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99fa8e0b-266f-43b2-8dfb-08867bb07f04.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a837929f-0e3f-451d-ac25-d674297e9f42.jpg</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7891035990533</t>
         </is>
       </c>
     </row>
@@ -2972,17 +3442,22 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Limpa Vidros Reax Cristal Gatilho 500ml</t>
+          <t>Limp Veja Mult Power Fusion 500ml Laranj</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a4338d91-e7a5-4074-a655-3df21908189c.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bceeb7a1-4435-4932-9b63-1c69cdf3e549.jpg</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>7891035990557</t>
         </is>
       </c>
     </row>
@@ -2999,17 +3474,22 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Lustra Mov Destac 500ml Preço Especial Lavand</t>
+          <t>Veja Banh Oxi Antibac Ativ 500ml 20% Des</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 18,99</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ab8caa8-6c85-4287-b9c9-6ec631a5ec3e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bbc65af8-2d09-4548-98b8-e5bda06455a5.jpg</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7891035000065</t>
         </is>
       </c>
     </row>
@@ -3026,17 +3506,22 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Oleo De Peroba King 200ml</t>
+          <t>Veja Banheiro Oxi Antibac Ativo 500ml</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 20,99</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38275ec1-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6fd0a577-3469-4cd7-9123-01d59ca0bbf5.jpg</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7891035000065</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3538,22 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Removedor Multi Eco Bufalo 500ml</t>
+          <t>Veja Limpeza Pesada 500ml 20% Desc Orig</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 11,99</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31664625-e80e-48b9-ae01-67f14d7e620d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e7288328-299c-4e39-ae5e-f13424ba5b5a.jpg</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7891035285189</t>
         </is>
       </c>
     </row>
@@ -3080,17 +3570,22 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Limpador Desengordurante Cozinha Uau 500ml Limão</t>
+          <t>Lustra Mov Destac 500ml Preço Especial Lavand</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/66d49713-c9bf-4e73-b2dd-05b3b912e7c0.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ab8caa8-6c85-4287-b9c9-6ec631a5ec3e.jpg</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7891035116537</t>
         </is>
       </c>
     </row>
@@ -3107,17 +3602,22 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Lava Roupas Uau 3l Rosas E Seduçao</t>
+          <t>Oleo De Peroba King 100ml</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>R$ 26,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1a596662-3255-459b-9e3f-fbe6f2c384c9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38f21c98-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>7896050500255</t>
         </is>
       </c>
     </row>
@@ -3134,17 +3634,22 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Removedor Zulu Perfumado 450ml</t>
+          <t>Oleo De Peroba King 200ml</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3e5cc359-b2cc-43a3-88e5-3c25abf379c2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38275ec1-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7896050500255</t>
         </is>
       </c>
     </row>
@@ -3161,17 +3666,22 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Cera Liquida Brilho Facil 750ml Amarela</t>
+          <t>Polidor Liquido P/metais Silvo 200ml</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 45,99</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/99ba26c0-2c63-4da5-a101-f870c83aa34b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3b49ff-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>7891035070006</t>
         </is>
       </c>
     </row>
@@ -3188,17 +3698,22 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Removedor Bufalo 1litro</t>
+          <t>Removedor Bufalo Perfumado Lavanda 1l</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>R$ 25,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/71a07713-9e49-42e4-9853-b3aa90023b12.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27699c07-7c2f-4363-800f-45cafa1bb18b.jpg</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7896097609065</t>
         </is>
       </c>
     </row>
@@ -3215,17 +3730,22 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Cera Liquida Brilho Facil 750ml Vermelha</t>
+          <t>Álcool Bactericida Top 46° Inpm 500ml</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed31c0f7-bbd8-4b3b-b273-d552914c20f6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b7c64809-cbde-432d-a887-582a0eb369a0.jpg</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7892141955928</t>
         </is>
       </c>
     </row>
@@ -3242,17 +3762,22 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Limpador Veja Uso Direto 900ml Original</t>
+          <t>Limpador Mult Uso Top Casa 500ml Original</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c1bab9cc-0fc9-401b-957a-a9061c704d07.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/49a01b2c-5d10-4365-afbc-2208dd675f9c.jpg</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7892141956321</t>
         </is>
       </c>
     </row>
@@ -3269,17 +3794,22 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Limpador Casa &amp; Perfume Amable 1l</t>
+          <t>Pano Umedecido Top Alcool C/35 Un Campos De Lavanda</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>R$ 11,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6a7cb55-b7ac-4089-9259-535b2181586d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47039319-7eb9-4148-8a31-b09838fd0389.jpg</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>7892141956246</t>
         </is>
       </c>
     </row>
@@ -3296,17 +3826,22 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Removedor Bufalo Perfumado Lavanda 1l</t>
+          <t>Pano Umedecido Top Alcool C/35 Un Fresh Green</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/27699c07-7c2f-4363-800f-45cafa1bb18b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f7ca09b-3ac6-4580-af20-2f5261afd02a.jpg</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7892141956253</t>
         </is>
       </c>
     </row>
@@ -3323,7 +3858,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Pano Umedecido Top Alcool C/35 Un Campos De Lavanda</t>
+          <t>Pano Umedecido Top Alcool C/35 Un Tradicional</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3333,7 +3868,12 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/47039319-7eb9-4148-8a31-b09838fd0389.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e4c07901-da26-4724-a06f-74809eab4733.jpg</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7892141956239</t>
         </is>
       </c>
     </row>
@@ -3350,17 +3890,22 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Limpa Estofados E Carpetes Sanol 500ml</t>
+          <t>Removedor Multi Eco Bufalo 500ml</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>R$ 13,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bff784c4-4a9f-4bff-93d4-3b0767f36149.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31664625-e80e-48b9-ae01-67f14d7e620d.jpg</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>7896097604046</t>
         </is>
       </c>
     </row>
@@ -3377,17 +3922,22 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Removedor Zulu Perfumado 900ml</t>
+          <t>Removedor Multi Eco Bufalo 500ml Aqua</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>R$ 28,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4728ad47-54e1-4c0f-bd00-d34c5fb465bc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aa383bc-8d06-4daf-8889-f9a0ab7994bc.jpg</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>7896097679525</t>
         </is>
       </c>
     </row>
@@ -3404,17 +3954,22 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Limpa Limo Reax Gatilho 500ml</t>
+          <t>Removedor Multi Eco Bufalo 500ml Brisa</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d04dffa7-4fb7-41e3-8b42-99f096a0bf9b.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b547f7b0-1507-445f-8399-2e55406a3bb2.jpg</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7896097679532</t>
         </is>
       </c>
     </row>
@@ -3431,17 +3986,22 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Pano Umedecido Top Alcool C/35 Un Fresh Green</t>
+          <t>Lustra Moveis Agifacil 200ml Jasmim</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4fe33280-90e6-43ee-ac93-fe7a92f443e2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/39f3f5aa-e66e-4d25-b3de-039d8928977d.jpg</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>7898005491014</t>
         </is>
       </c>
     </row>
@@ -3458,17 +4018,22 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Limp Veja X14 Tira Limo 500ml C/gatilho</t>
+          <t>Lustra Moveis Agifacil 200ml Lavanda</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>R$ 44,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/81b9e5fb-ccb9-42f9-8b8b-d9b0cba24375.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/cf7e0c87-1ab2-4c0c-a0c5-edd2cdddd512.jpg</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7896098909980</t>
         </is>
       </c>
     </row>
@@ -3485,17 +4050,22 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Limp P/pisos Ceram Destac 750ml Porc</t>
+          <t>Limpador Casa &amp; Perfume 500ml Misterio Amore</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 6,99</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/73f904b6-c407-4062-acd1-0febc88889a9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e49f80e5-f311-4a04-b51f-1912cdbf78e6.jpg</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7896040706247</t>
         </is>
       </c>
     </row>
@@ -3512,17 +4082,22 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Lustra Moveis Poliflor 200ml Jasmim</t>
+          <t>Nugget Liquido Marrom 33% Desc 60ml</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/34afc8e0-f991-4f65-a6bd-5534325fcf13.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f0ffba5-f636-4528-8483-ab1724d39e6f.jpg</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>7891035116568</t>
         </is>
       </c>
     </row>
@@ -3539,17 +4114,22 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Lustra Moveis Peroba Rosa 500ml</t>
+          <t>Limpador Desengordurante Cif Gatilho 500ml Derrete Gordura</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 23,99</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/182bc18d-cd88-45da-a42b-66c78c99f520.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2de39321-2de6-4304-8148-dd368b69343a.jpg</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>7891150090743</t>
         </is>
       </c>
     </row>
@@ -3566,17 +4146,22 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Limpador Veja Uso Direto 900ml Floral</t>
+          <t>Limpador Cozinha Mr Musculo 500ml Squeez Oferta Especial</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/40564e7e-2574-478b-8bd8-83a47096eb2e.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e57b9f27-47c3-43a1-b9b8-d6fa1558bf4f.jpg</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7894650013908</t>
         </is>
       </c>
     </row>
@@ -3593,17 +4178,22 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Oleo De Peroba King 100ml</t>
+          <t>Limpador Perfumado Coala 120ml Ameixa Dourada</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/38f21c98-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba6e02ef-c3cc-4c3d-9718-4625c3b1e8ca.jpg</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>7897744505402</t>
         </is>
       </c>
     </row>
@@ -3620,17 +4210,22 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Limpador Desengordurante Cif Gatilho 500ml Derrete Gordura</t>
+          <t>Limpador Perfumado Coala 120ml Patchouli C/tangerina</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>R$ 23,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2de39321-2de6-4304-8148-dd368b69343a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0e5c494-b368-4def-bf73-afe6415aa4e2.jpg</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>7897744505181</t>
         </is>
       </c>
     </row>
@@ -3647,7 +4242,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Zulu Coala 500ml Bambu</t>
+          <t>Limpador Perfumado Zulu Coala 500ml Algodao</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3657,7 +4252,12 @@
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e54ab4d8-21db-4848-a45f-896628ac698d.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/653c4b76-47bc-4e01-a779-fba1e59e5c5e.jpg</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7896090700509</t>
         </is>
       </c>
     </row>
@@ -3674,17 +4274,22 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Lustra Moveis Poliflor Superfice 200 Ml</t>
+          <t>Limpador Perfumado Zulu Coala 500ml Bambu</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>R$ 18,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5aaeb35f-25aa-40f0-9839-eab3b61f7a27.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e54ab4d8-21db-4848-a45f-896628ac698d.jpg</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7896090700509</t>
         </is>
       </c>
     </row>
@@ -3701,17 +4306,22 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Lustra Moveis Peroba Jasmim 500ml</t>
+          <t>Limpador Perfumado Zulu Coala 500ml Lavanda</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>R$ 16,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/21856309-e3c4-4383-b974-228f4abaf9ea.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/571328c0-8b2a-48f8-9f98-a9d4a0db98e7.jpg</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>7896090700509</t>
         </is>
       </c>
     </row>
@@ -3728,7 +4338,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Removedor Multi Eco Bufalo 500ml Brisa</t>
+          <t>Desinfetante Pinho Uau 500ml Trop Pinho</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3738,7 +4348,12 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b547f7b0-1507-445f-8399-2e55406a3bb2.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/169eca46-2c63-4890-ad9d-7a72f68e1dac.jpg</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7891242151567</t>
         </is>
       </c>
     </row>
@@ -3755,17 +4370,22 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Lustra Moveis Destac Lavanda 500ml</t>
+          <t>Limpador Perfumes Uau 1l Brisa E Frescor</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>R$ 24,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/320e1fa1-51df-4dc7-b492-44cf3e07dce7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f032e274-e5e3-4212-919e-b263f7b299ca.jpg</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>7891242457126</t>
         </is>
       </c>
     </row>
@@ -3782,17 +4402,22 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Zulu Coala 500ml Lavanda</t>
+          <t>Limpador Perfumes Uau 1l Lavanda E Conforto</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/571328c0-8b2a-48f8-9f98-a9d4a0db98e7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3fca6344-6f81-45b8-8d1b-7b1d36b46172.jpg</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>7891242457133</t>
         </is>
       </c>
     </row>
@@ -3809,17 +4434,22 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Cera Liquida Poliflor Pratic 750ml Incolor</t>
+          <t>Limpador Perfumado Uau 500ml Brisa E Frescor</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>R$ 22,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d01b00aa-d8d6-46c3-93d0-368ee65d9fde.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6ade5c2f-48b9-4b64-8daa-b00685e2fa57.jpg</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7891242457126</t>
         </is>
       </c>
     </row>
@@ -3836,17 +4466,22 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Removedor Reax 1l</t>
+          <t>Limpador Perfumado Uau 500ml Lavanda E Conforto</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 4,99</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faeff86c-5c02-4c23-bbc3-088090823c7f.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7a26cde2-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>7891242457041</t>
         </is>
       </c>
     </row>
@@ -3863,17 +4498,22 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Kit Cloro Ativo+desengordurante+grátis Pinho 500ml</t>
+          <t>Limpa Box Uau 200ml</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3014a40e-86a1-4085-b9d1-6b87e8a73387.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f19b36c-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>7891242778092</t>
         </is>
       </c>
     </row>
@@ -3890,935 +4530,22 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Limpador Perfumado Zulu Coala 500ml Algodao</t>
+          <t>Kit Limpeza Uau Cloro Ativo +grátis Multiuso Lavanda 500ml</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 16,99</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/653c4b76-47bc-4e01-a779-fba1e59e5c5e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Desinfetante Pinho Uau 500ml Trop Pinho</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/169eca46-2c63-4890-ad9d-7a72f68e1dac.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>Limpa Box Uau 200ml</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7f19b36c-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>Limpador Perfumes Uau 1l Lavanda E Conforto</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3fca6344-6f81-45b8-8d1b-7b1d36b46172.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>Limpador Bravo 750ml Laminado</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>R$ 32,99</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/eeb36ffc-fee5-4cb2-a41d-4c3574d5778a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Limpador Cif Gatilho 500ml Banheiro S/cloro</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/68eca0eb-136a-400f-adf3-294dcc20a9d4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Destac Uso Direto Lavanda 750ml</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ac3e8b2-b9cb-4f3a-a2f7-47e5c8b7c7cb.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>Veja Vidrex Bio Alcool 500ml Squeeze</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>R$ 17,29</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://www.violetaexpress.com.br/assets/images/default_image_md.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>Removedor Multi Eco Bufalo 500ml Aqua</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4aa383bc-8d06-4daf-8889-f9a0ab7994bc.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>Limpador Perfumes Uau 1l Flores Vermelhas E Sedução</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/18ab2631-5775-4e7c-a6be-37afd7b9e6bf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Limpa Pisos Uau 750ml Neutraliza Odores</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0dfa5097-c19b-4f33-aa2e-dbd66aef8dda.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Limpador Cozinha Mr Musculo 500ml Squeez Oferta Especial</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e57b9f27-47c3-43a1-b9b8-d6fa1558bf4f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>Limpa Pisos Bravo 750ml Porce/ceramica</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/5591cc1e-ab37-49f1-8565-310ad2bc61d8.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>Removedor De Ceras Brilho Facil K&amp;m 1l</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9501f6fe-5aa4-4576-932f-b2f43824dab2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>Limpa Carpetes Vanish Karpex 500ml</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a6faba6e-b1ff-46a7-8af4-fb706a6cb60f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>Querosene Perfumado Bufalo Lavanda 500ml</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7969a5d9-22dd-4890-9262-1811d0a1aa47.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Cera Nugget 36g Preto</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/43a59f8d-abc1-489d-96bf-8d0d34e278d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Polidor Liquido P/metais Silvo 200ml</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>R$ 45,99</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/7c3b49ff-c0b3-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Desinfetante Banheiro 7em1 Uau 500ml Nano Protect</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1488367-9cd6-46f3-a6fe-9f3a6013d72d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>Cera Liq Nugget Preto 60ml</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>R$ 24,99</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b9eb5979-46f3-4973-b7e2-897243027e69.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>Polidor Liquido P/metais Polidoro 240g</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e1387562-003b-4ee4-a479-735b73f178ae.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>Cera Liquida Poliflor Pratic 750ml Vermelha</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>R$ 14,93</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e367d618-c0ba-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Poliflor Max.brilho Incolor Sache 500ml</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>R$ 15,99</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4ef355c0-7c1c-4a42-8615-a3a36915b2e5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>Querosene Bufalo 500ml</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1064be4-423f-4db4-bf61-f8846bd0b8d6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>Limpador Perfumado Coala 120ml Flor De Cacto</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9547824e-6d5d-49c7-952f-594af0f9a561.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Limpador Perfumado Coala 120ml Ameixa Dourada</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ba6e02ef-c3cc-4c3d-9718-4625c3b1e8ca.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Limpador Perfumes Uau 1l Brisa E Frescor</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f032e274-e5e3-4212-919e-b263f7b299ca.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Cera Nugget 36g Marrom</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6012fac8-932a-4960-ba88-da0b1ac450b5.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>Querosene Perf.jasmin Bufalo 500ml</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/faaf4d39-c1ad-4637-b61b-c9cac9c44f44.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>Querosene Apache 900ml</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b72487c0-7148-46c7-82f7-be3e4b254bdf.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Querosene Bufalo 1lt</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>R$ 26,99</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a2477647-159d-458f-a4e7-5e066882bb4c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Limpador Perfumado Coala 120ml Patchouli C/tangerina</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>R$ 16,99</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f0e5c494-b368-4def-bf73-afe6415aa4e2.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>Limpador Desengordurante Uau Gatilho 500ml</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/3a12ed2f-0761-431e-acaf-ce832745c710.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>Nugget Liquido Marrom 33% Desc 60ml</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/1f0ffba5-f636-4528-8483-ab1724d39e6f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>Limpeza</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>Limpeza da casa</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Limpador Multi Uso Cif Cremoso Leve 450ml Pague 360ml Original</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>R$ 14,99</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a27929e9-f37b-4653-9b34-7201d4093ef3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/12b14286-d183-4668-8f69-04cde0d70273.jpg</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>7891242461536</t>
         </is>
       </c>
     </row>
